--- a/uploads/END-USER.xlsx
+++ b/uploads/END-USER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -31,49 +31,31 @@
     <t xml:space="preserve">EMPLOYEE_CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">Vinayaka Naik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vinayakamudrai@gmail.com</t>
+    <t xml:space="preserve">Jayashree Kulai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jayashree.cs16@sahyadri.edu.in</t>
   </si>
   <si>
     <t xml:space="preserve">MNG001</t>
   </si>
   <si>
-    <t xml:space="preserve">Jayashree Kulai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jayashree.cs16@sahyadri.edu.in</t>
+    <t xml:space="preserve">Roy Pashan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail2winstonroy@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">MNG002</t>
   </si>
   <si>
-    <t xml:space="preserve">Sharal Linsha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharalfonseca1810@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinusha Monterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vinushamonteiro2016@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roy pashan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mail2winstonroy@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG005</t>
+    <t xml:space="preserve">Winston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pashanwinsty1998@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM001</t>
   </si>
 </sst>
 </file>
@@ -181,10 +163,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,35 +221,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="vinayakamudrai@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="jayashree.cs16@sahyadri.edu.in"/>
-    <hyperlink ref="B4" r:id="rId3" display="sharalfonseca1810@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="vinushamonteiro2016@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="mail2winstonroy@yahoo.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="jayashree.cs16@sahyadri.edu.in"/>
+    <hyperlink ref="B3" r:id="rId2" display="mail2winstonroy@yahoo.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="pashanwinsty1998@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
